--- a/SupplementaryTables/Table S2.xlsx
+++ b/SupplementaryTables/Table S2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skn/Dropbox/Diabetes_FinalSubmission_RemoveBatchEffectArtifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B4E01810-130C-464A-86B1-C70188F734C5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDDB4F74-27B4-8747-99E8-A4B203D8E594}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15460" yWindow="2640" windowWidth="34000" windowHeight="23600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Table S2: ATAC-seq quality control metrics for the 19 islets</t>
   </si>
@@ -72,9 +72,6 @@
     <t>ND1</t>
   </si>
   <si>
-    <t>MLS</t>
-  </si>
-  <si>
     <t>AU</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>ND4</t>
   </si>
   <si>
-    <t>XY</t>
-  </si>
-  <si>
     <t>Islet7</t>
   </si>
   <si>
@@ -126,9 +120,6 @@
     <t>ND6</t>
   </si>
   <si>
-    <t>Romy</t>
-  </si>
-  <si>
     <t>Islet10</t>
   </si>
   <si>
@@ -199,9 +190,6 @@
   </si>
   <si>
     <t>ND14</t>
-  </si>
-  <si>
-    <t>IK</t>
   </si>
   <si>
     <t>Islet12</t>
@@ -624,7 +612,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,16 +646,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>3</v>
@@ -704,11 +692,11 @@
       <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>104175819</v>
@@ -740,19 +728,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F4" s="1">
         <v>105576462</v>
@@ -784,19 +772,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>121318440</v>
@@ -828,16 +816,16 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
+      <c r="D6" s="3">
+        <v>2</v>
       </c>
       <c r="E6" s="4">
         <v>41319</v>
@@ -872,16 +860,16 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>25</v>
+      <c r="D7" s="3">
+        <v>2</v>
       </c>
       <c r="E7" s="4">
         <v>41319</v>
@@ -916,16 +904,16 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>32</v>
+      <c r="D8" s="3">
+        <v>3</v>
       </c>
       <c r="E8" s="4">
         <v>41319</v>
@@ -960,16 +948,16 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
       </c>
       <c r="E9" s="4">
         <v>41319</v>
@@ -1004,16 +992,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
       </c>
       <c r="E10" s="4">
         <v>41408</v>
@@ -1048,16 +1036,16 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
       </c>
       <c r="E11" s="4">
         <v>41439</v>
@@ -1092,16 +1080,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>41</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2</v>
       </c>
       <c r="E12" s="4">
         <v>41592</v>
@@ -1136,16 +1124,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
       </c>
       <c r="E13" s="4">
         <v>41439</v>
@@ -1180,16 +1168,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
       </c>
       <c r="E14" s="4">
         <v>41531</v>
@@ -1224,16 +1212,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
       </c>
       <c r="E15" s="4">
         <v>41531</v>
@@ -1268,16 +1256,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
       </c>
       <c r="E16" s="4">
         <v>41592</v>
@@ -1312,16 +1300,16 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
       </c>
       <c r="E17" s="4">
         <v>41408</v>
@@ -1356,16 +1344,16 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
       </c>
       <c r="E18" s="4">
         <v>41592</v>
@@ -1400,16 +1388,16 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
       </c>
       <c r="E19" s="4">
         <v>41592</v>
@@ -1444,16 +1432,16 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>32</v>
+        <v>65</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
       </c>
       <c r="E20" s="4">
         <v>41320</v>
@@ -1488,16 +1476,16 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
       </c>
       <c r="E21" s="4">
         <v>41320</v>
@@ -1537,7 +1525,7 @@
     <row r="23" spans="1:14" ht="64" x14ac:dyDescent="0.2">
       <c r="L23" s="1"/>
       <c r="N23" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
